--- a/Campañas pendientes_Nov.xlsx
+++ b/Campañas pendientes_Nov.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/a01741351_tec_mx/Documents/Documents/Tec de Monterrey/Semestre 7/OCJ/Dashboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{7137E4FC-1B98-4680-8E75-7786C07613C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E15C0468-D7BD-4A06-BC5B-A4ED86040AB5}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="8_{7137E4FC-1B98-4680-8E75-7786C07613C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8420B677-D4CF-49D4-8CF6-BA21866F1999}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{B7851BD7-3B65-466B-849C-0279DBEF9901}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="449">
   <si>
     <t>Iniciativa</t>
   </si>
@@ -1400,6 +1400,57 @@
   </si>
   <si>
     <t>miPlandeRetiro_junio</t>
+  </si>
+  <si>
+    <t>TyE_Eventos Institucionales</t>
+  </si>
+  <si>
+    <t>TyE_VIISS</t>
+  </si>
+  <si>
+    <t>TyE_Enablers_HTI</t>
+  </si>
+  <si>
+    <t>Patrimonio cultural</t>
+  </si>
+  <si>
+    <t>TyE_PowerUp_Bienestar</t>
+  </si>
+  <si>
+    <t>Tye_Presidencia</t>
+  </si>
+  <si>
+    <t>Expedition</t>
+  </si>
+  <si>
+    <t>CNDH</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t>CIIE</t>
+  </si>
+  <si>
+    <t>TyE_VPO</t>
+  </si>
+  <si>
+    <t>TyE_Flexibility_Trabajo Flexible</t>
+  </si>
+  <si>
+    <t>Espacios flexibles</t>
+  </si>
+  <si>
+    <t>TyE_Otros</t>
+  </si>
+  <si>
+    <t>*Cosas que se publican en MiTEC</t>
+  </si>
+  <si>
+    <t>Tec On Demand</t>
+  </si>
+  <si>
+    <t>TyE_TecMi</t>
   </si>
 </sst>
 </file>
@@ -1598,54 +1649,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1879,6 +1882,54 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1897,18 +1948,17 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Campañas y correos"/>
+      <sheetName val="Campañas y correos (2)"/>
       <sheetName val="CampañasÚnicasPorMes"/>
+      <sheetName val="aux"/>
+      <sheetName val="AnálisisMITEC"/>
       <sheetName val="AnálisisCorreos"/>
-      <sheetName val="AnálisisMITEC"/>
       <sheetName val="Otra"/>
-      <sheetName val="aux"/>
-      <sheetName val="Campañas y correos(2)"/>
       <sheetName val="Campañas y correos - Nuevas"/>
       <sheetName val="Septiembre"/>
       <sheetName val="Hoja1"/>
       <sheetName val="Octubre_Resultados"/>
       <sheetName val="AnálisisCorreos(2)"/>
-      <sheetName val="AnálisisMITEC (2)"/>
       <sheetName val="AnálisisComparativo"/>
     </sheetNames>
     <sheetDataSet>
@@ -2045,620 +2095,719 @@
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>Otros</v>
+            <v>Global Shared Learning Room</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>Global Shared Learning Room</v>
+            <v>CEDDIE</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>CEDDIE</v>
+            <v>Bienvenida</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>Bienvenida</v>
+            <v>Inspira</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>Inspira</v>
+            <v>Visor de Calificaciones</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>Visor de Calificaciones</v>
+            <v>Educación Continua</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>Educación Continua</v>
+            <v>Innovación Educativa</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>Innovación Educativa</v>
+            <v>Otros - Academia</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>Otros - Academia</v>
+            <v>Revista Stanford</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>Revista Stanford</v>
+            <v>Patrimonio cultural</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>TECservices</v>
+            <v>Evaluación de etapa</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>Número único</v>
+            <v>CIIE</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>GlobalMobility</v>
+            <v>TECservices</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>Vales de Despensa</v>
+            <v>Número único</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>TECBot</v>
+            <v>GlobalMobility</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>Concientización</v>
+            <v>Vales de Despensa</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>MiLlaveDigital</v>
+            <v>TECBot</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>SEPMobile</v>
+            <v>Concientización</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>MiTEC</v>
+            <v>MiLlaveDigital</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>MiTEC - Queremos escucharte</v>
+            <v>SEPMobile</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>Techvolution</v>
+            <v>MiTEC</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>Renovación de línea</v>
+            <v>MiTEC - Queremos escucharte</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>Telefonía</v>
+            <v>Techvolution</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>Ciberseguridad</v>
+            <v>Renovación de línea</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>Herramientas digitales</v>
+            <v>Telefonía</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>Mi caja de ahorro</v>
+            <v>Ciberseguridad</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>Seguros voluntarios</v>
+            <v>Herramientas digitales</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>BecaPrepanet</v>
+            <v>MiTEC</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>Subasta Vehiculos</v>
+            <v>Herramientas digitales</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>Prestamo Tec</v>
+            <v>Mi caja de ahorro</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>Aseguratec</v>
+            <v>Seguros voluntarios</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>Mis convenios</v>
+            <v>BecaPrepanet</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>Empoderamiento</v>
+            <v>Subasta Vehiculos</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>SURA</v>
+            <v>Prestamo Tec</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>Apoyo Home Office 2021</v>
+            <v>Aseguratec</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>Mi Apoyo comida</v>
+            <v>Mis convenios</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>BeneFlex</v>
+            <v>Empoderamiento</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>Buenas noticias</v>
+            <v>SURA</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>Vacaciones</v>
+            <v>Apoyo Home Office 2021</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>Vales de Despensa</v>
+            <v>Mi Apoyo comida</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>CFDI</v>
+            <v>BeneFlex</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>Declaracion Anual</v>
+            <v>Buenas noticias</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>Mi plan de retiro</v>
+            <v>Vacaciones</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>Infonavit</v>
+            <v>Vales de Despensa</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>Coronavirus</v>
+            <v>CFDI</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>Acciones 4ta ola</v>
+            <v>Declaracion Anual</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>Espacios Flexibles</v>
+            <v>Mi plan de retiro</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>Mis viajes</v>
+            <v>Infonavit</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>Wellbeing</v>
+            <v>Coronavirus</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>Semana Tqueremos</v>
+            <v>Acciones 4ta ola</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>Unidos contigo</v>
+            <v>Espacios Flexibles</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>Cuida tu mente</v>
+            <v>Mis viajes</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>Cáncer de mama</v>
+            <v>Espacios flexibles</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>Testamento</v>
+            <v>Espacios flexibles</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>Semana del bienestar financiero</v>
+            <v>Wellbeing</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>Learning Hub</v>
+            <v>Semana Tqueremos</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>English@Tec</v>
+            <v>Unidos contigo</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>TechSavvy</v>
+            <v>Cuida tu mente</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>Momentos para conversar</v>
+            <v>Cáncer de mama</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>Reflexión Final</v>
+            <v>Testamento</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>Mi Plan de Desarrollo</v>
+            <v>Semana del bienestar financiero</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>Plan de Mejora</v>
+            <v>Diabetes</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>Retroalimentación Continua</v>
+            <v>Learning Hub</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>Mis compromisos</v>
+            <v>English@Tec</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>LT</v>
+            <v>TechSavvy</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>News TyE</v>
+            <v>Momentos para conversar</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>Cambios organizacionales</v>
+            <v>Reflexión Final</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>TecGlobal</v>
+            <v>Mi Plan de Desarrollo</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>Día de las Madres</v>
+            <v>Plan de Mejora</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>Día del Padre</v>
+            <v>Retroalimentación Continua</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>Lealtad</v>
+            <v>Mis compromisos</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>Olimpiadas Tokio 2021</v>
+            <v>LT</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>Día de la familia</v>
+            <v>News TyE</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>Fiestas Tec</v>
+            <v>Cambios organizacionales</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>Día del maestro</v>
+            <v>TecGlobal</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>Refiriendo Talento</v>
+            <v>Día de las Madres</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>Asig Temporales</v>
+            <v>Día del Padre</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>Marca empleadora</v>
+            <v>Lealtad</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>U21 Award 2022</v>
+            <v>Olimpiadas Tokio 2021</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>Conferencias</v>
+            <v>Día de la familia</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>QS</v>
+            <v>Fiestas Tec</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>Charlas de Pasillo con David Garza</v>
+            <v>Día del maestro</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>Informe Anual</v>
+            <v>Mundial de Qatar</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110" t="str">
-            <v>Casa sorteos</v>
+            <v>Refiriendo Talento</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>Aniversario ST</v>
+            <v>Asig Temporales</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112" t="str">
-            <v>Sorteo con Propósito</v>
+            <v>Marca empleadora</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>Sorteo Líder a Líder</v>
+            <v>U21 Award 2022</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114" t="str">
-            <v>Wellbeing 360</v>
+            <v>Conferencias</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115" t="str">
-            <v>Semana de la Felicidad</v>
+            <v>Princeton</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116" t="str">
-            <v>COVID al día</v>
+            <v>Tec On Demand</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117" t="str">
-            <v>Conectar</v>
+            <v>SACSCOC</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118" t="str">
-            <v>Sesión de talento</v>
+            <v>Protocolo de Acceso</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119" t="str">
-            <v>Mi ECO</v>
+            <v>QS</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120" t="str">
-            <v>Eventos</v>
+            <v>Charlas de Pasillo con David Garza</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121" t="str">
-            <v>Foro Dialogos Abiertos</v>
+            <v>Informe Anual</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122" t="str">
-            <v>Impulsa</v>
+            <v>Expedition</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123" t="str">
-            <v>Premio Eugenio Garza Sada</v>
+            <v>Charlas de Pasillo con David Garza</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124" t="str">
-            <v>Día Internacional de la Mujer</v>
+            <v>Graduacion TEC</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125" t="str">
-            <v>Premio Mujer Tec</v>
+            <v>Casa sorteos</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126" t="str">
-            <v>Valores y Cultura</v>
+            <v>Aniversario ST</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127" t="str">
-            <v>Líderes del Mañana</v>
+            <v>Sorteo con Propósito</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128" t="str">
-            <v>Voluntariado Tec</v>
+            <v>Sorteo Líder a Líder</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129" t="str">
-            <v>Inclusión e Integridad</v>
+            <v>Wellbeing 360</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130" t="str">
-            <v>ETHOS</v>
+            <v>Semana de la Felicidad</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131" t="str">
-            <v>TecSeguro</v>
+            <v>Organizaciones Positivas</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132" t="str">
-            <v>Ruta Azul</v>
+            <v>COVID al día</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133" t="str">
-            <v>Sostenibilidad</v>
+            <v>Conectar</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134" t="str">
-            <v>Conferencias</v>
+            <v>Sesión de talento</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135" t="str">
-            <v>Iniciativas Sociales</v>
+            <v>Mi ECO</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136" t="str">
-            <v>Súmate</v>
+            <v>Eventos</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137" t="str">
-            <v>Filantropia</v>
+            <v>Foro Dialogos Abiertos</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138" t="str">
-            <v>Exatec</v>
+            <v>Impulsa</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139" t="str">
-            <v>Market Tec</v>
+            <v>Premio Eugenio Garza Sada</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140" t="str">
-            <v>Compromiso con la integridad</v>
+            <v>Día Internacional de la Mujer</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141" t="str">
-            <v>TecFood</v>
+            <v>Premio Mujer Tec</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142" t="str">
-            <v>Borregos</v>
+            <v>Valores y Cultura</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143" t="str">
-            <v>TecStore</v>
+            <v>Líderes del Mañana</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144" t="str">
-            <v>FBA</v>
+            <v>Voluntariado Tec</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145" t="str">
+            <v>Inclusión e Integridad</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146" t="str">
+            <v>ETHOS</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147" t="str">
+            <v>TecSeguro</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148" t="str">
+            <v>Ruta Azul</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149" t="str">
+            <v>Sostenibilidad</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150" t="str">
+            <v>Conferencias</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="A151" t="str">
+            <v>Iniciativas Sociales</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152" t="str">
+            <v>Mujer Tec</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="A153" t="str">
+            <v>CNDH</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="A154" t="str">
+            <v>Impulsa</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="A155" t="str">
+            <v>Súmate</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="A156" t="str">
+            <v>Filantropia</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="A157" t="str">
+            <v>Exatec</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158" t="str">
+            <v>Market Tec</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159" t="str">
+            <v>Compromiso con la integridad</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160" t="str">
+            <v>TecFood</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161" t="str">
+            <v>Borregos</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162" t="str">
+            <v>TecStore</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163" t="str">
+            <v>FBA</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164" t="str">
             <v>TecReview</v>
           </cell>
         </row>
+        <row r="165">
+          <cell r="A165" t="str">
+            <v>ProTect</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBC93967-AEAF-4976-A74B-B5DF052C594F}" name="Iniciativas_Mes" displayName="Iniciativas_Mes" ref="A1:G227" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBC93967-AEAF-4976-A74B-B5DF052C594F}" name="Iniciativas_Mes" displayName="Iniciativas_Mes" ref="A1:G227" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:G227" xr:uid="{283673A6-59A1-4AB1-A4AB-B15041C0CEB0}">
     <filterColumn colId="1">
       <filters>
@@ -2670,17 +2819,17 @@
     <sortCondition descending="1" ref="G1:G227"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{83F67FA8-02AE-4C72-B3BF-A536E88FA460}" name="Iniciativa" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{8DDC6570-D713-4237-88C7-AB286A379991}" name="Estatus en campañas identificadas" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{83F67FA8-02AE-4C72-B3BF-A536E88FA460}" name="Iniciativa" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{8DDC6570-D713-4237-88C7-AB286A379991}" name="Estatus en campañas identificadas" dataDxfId="6">
       <calculatedColumnFormula>IF(ISERROR(VLOOKUP(A2,'[1]Campañas y correos'!A:A,1,FALSE)),"No encontrado","Encontrado")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8D261F2C-76E0-484B-990A-3A321E199172}" name="MITEC" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{40F42A9C-884E-494F-96B1-81E6819BE035}" name="Responsable" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{7C4E3B81-C10C-45E9-85FB-003C75E60601}" name="Número de clics" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{DD172D4D-FA7D-420C-9EF3-B888ECE5A069}" name="Mes" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{8D261F2C-76E0-484B-990A-3A321E199172}" name="MITEC" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{40F42A9C-884E-494F-96B1-81E6819BE035}" name="Responsable" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{7C4E3B81-C10C-45E9-85FB-003C75E60601}" name="Número de clics" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{DD172D4D-FA7D-420C-9EF3-B888ECE5A069}" name="Mes" dataDxfId="2">
       <calculatedColumnFormula>TEXT(G2,"mmmm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{01AFF115-1FC8-4720-8962-EA550D53FF1A}" name="Mes [Fecha]" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{01AFF115-1FC8-4720-8962-EA550D53FF1A}" name="Mes [Fecha]" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2985,14 +3134,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E323BF1-EA07-47E2-8914-35D6E8FAA0A7}">
   <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
@@ -7939,7 +8088,7 @@
         <v>286</v>
       </c>
       <c r="F130" s="12" t="str">
-        <f t="shared" ref="F130:F161" si="19">IF(D130="",C130&amp;"_"&amp;E130,IF(D130="Aca",C130&amp;"_"&amp;E130,C130&amp;"_"&amp;D130&amp;"_"&amp;E130))</f>
+        <f t="shared" ref="F130:F146" si="19">IF(D130="",C130&amp;"_"&amp;E130,IF(D130="Aca",C130&amp;"_"&amp;E130,C130&amp;"_"&amp;D130&amp;"_"&amp;E130))</f>
         <v>TyE_VIISS</v>
       </c>
       <c r="G130" s="11" t="str">
@@ -8613,7 +8762,7 @@
         <v>3913</v>
       </c>
       <c r="F2" s="5" t="str">
-        <f>TEXT(G2,"mmmm")</f>
+        <f t="shared" ref="F2:F65" si="0">TEXT(G2,"mmmm")</f>
         <v>noviembre</v>
       </c>
       <c r="G2" s="4">
@@ -8638,7 +8787,7 @@
         <v>2484</v>
       </c>
       <c r="F3" s="5" t="str">
-        <f>TEXT(G3,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G3" s="4">
@@ -8651,7 +8800,7 @@
       </c>
       <c r="B4" s="2" t="str">
         <f>IF(ISERROR(VLOOKUP(A4,'[1]Campañas y correos'!A:A,1,FALSE)),"No encontrado","Encontrado")</f>
-        <v>No encontrado</v>
+        <v>Encontrado</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>354</v>
@@ -8663,7 +8812,7 @@
         <v>1391</v>
       </c>
       <c r="F4" s="5" t="str">
-        <f>TEXT(G4,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G4" s="4">
@@ -8688,7 +8837,7 @@
         <v>1277</v>
       </c>
       <c r="F5" s="5" t="str">
-        <f>TEXT(G5,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G5" s="4">
@@ -8701,7 +8850,7 @@
       </c>
       <c r="B6" s="2" t="str">
         <f>IF(ISERROR(VLOOKUP(A6,'[1]Campañas y correos'!A:A,1,FALSE)),"No encontrado","Encontrado")</f>
-        <v>No encontrado</v>
+        <v>Encontrado</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>356</v>
@@ -8713,7 +8862,7 @@
         <v>1234</v>
       </c>
       <c r="F6" s="5" t="str">
-        <f>TEXT(G6,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G6" s="4">
@@ -8726,7 +8875,7 @@
       </c>
       <c r="B7" s="2" t="str">
         <f>IF(ISERROR(VLOOKUP(A7,'[1]Campañas y correos'!A:A,1,FALSE)),"No encontrado","Encontrado")</f>
-        <v>No encontrado</v>
+        <v>Encontrado</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>357</v>
@@ -8738,7 +8887,7 @@
         <v>1186</v>
       </c>
       <c r="F7" s="5" t="str">
-        <f>TEXT(G7,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G7" s="4">
@@ -8763,7 +8912,7 @@
         <v>1134</v>
       </c>
       <c r="F8" s="5" t="str">
-        <f>TEXT(G8,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G8" s="4">
@@ -8776,7 +8925,7 @@
       </c>
       <c r="B9" s="2" t="str">
         <f>IF(ISERROR(VLOOKUP(A9,'[1]Campañas y correos'!A:A,1,FALSE)),"No encontrado","Encontrado")</f>
-        <v>No encontrado</v>
+        <v>Encontrado</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>360</v>
@@ -8788,7 +8937,7 @@
         <v>1015</v>
       </c>
       <c r="F9" s="5" t="str">
-        <f>TEXT(G9,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G9" s="4">
@@ -8813,7 +8962,7 @@
         <v>988</v>
       </c>
       <c r="F10" s="5" t="str">
-        <f>TEXT(G10,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G10" s="4">
@@ -8826,7 +8975,7 @@
       </c>
       <c r="B11" s="2" t="str">
         <f>IF(ISERROR(VLOOKUP(A11,'[1]Campañas y correos'!A:A,1,FALSE)),"No encontrado","Encontrado")</f>
-        <v>No encontrado</v>
+        <v>Encontrado</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>362</v>
@@ -8838,7 +8987,7 @@
         <v>893</v>
       </c>
       <c r="F11" s="5" t="str">
-        <f>TEXT(G11,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G11" s="4">
@@ -8863,7 +9012,7 @@
         <v>879</v>
       </c>
       <c r="F12" s="5" t="str">
-        <f>TEXT(G12,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G12" s="4">
@@ -8885,7 +9034,7 @@
         <v>773</v>
       </c>
       <c r="F13" s="5" t="str">
-        <f>TEXT(G13,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G13" s="4">
@@ -8910,7 +9059,7 @@
         <v>658</v>
       </c>
       <c r="F14" s="5" t="str">
-        <f>TEXT(G14,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G14" s="4">
@@ -8935,7 +9084,7 @@
         <v>645</v>
       </c>
       <c r="F15" s="5" t="str">
-        <f>TEXT(G15,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G15" s="4">
@@ -8960,7 +9109,7 @@
         <v>620</v>
       </c>
       <c r="F16" s="5" t="str">
-        <f>TEXT(G16,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G16" s="4">
@@ -8973,7 +9122,7 @@
       </c>
       <c r="B17" s="2" t="str">
         <f>IF(ISERROR(VLOOKUP(A17,'[1]Campañas y correos'!A:A,1,FALSE)),"No encontrado","Encontrado")</f>
-        <v>No encontrado</v>
+        <v>Encontrado</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>369</v>
@@ -8985,7 +9134,7 @@
         <v>612</v>
       </c>
       <c r="F17" s="5" t="str">
-        <f>TEXT(G17,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G17" s="4">
@@ -9010,7 +9159,7 @@
         <v>566</v>
       </c>
       <c r="F18" s="5" t="str">
-        <f>TEXT(G18,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G18" s="4">
@@ -9032,7 +9181,7 @@
         <v>543</v>
       </c>
       <c r="F19" s="5" t="str">
-        <f>TEXT(G19,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G19" s="4">
@@ -9045,7 +9194,7 @@
       </c>
       <c r="B20" s="2" t="str">
         <f>IF(ISERROR(VLOOKUP(A20,'[1]Campañas y correos'!A:A,1,FALSE)),"No encontrado","Encontrado")</f>
-        <v>No encontrado</v>
+        <v>Encontrado</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>373</v>
@@ -9057,7 +9206,7 @@
         <v>478</v>
       </c>
       <c r="F20" s="5" t="str">
-        <f>TEXT(G20,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G20" s="4">
@@ -9082,7 +9231,7 @@
         <v>476</v>
       </c>
       <c r="F21" s="5" t="str">
-        <f>TEXT(G21,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G21" s="4">
@@ -9095,7 +9244,7 @@
       </c>
       <c r="B22" s="2" t="str">
         <f>IF(ISERROR(VLOOKUP(A22,'[1]Campañas y correos'!A:A,1,FALSE)),"No encontrado","Encontrado")</f>
-        <v>No encontrado</v>
+        <v>Encontrado</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>376</v>
@@ -9107,7 +9256,7 @@
         <v>439</v>
       </c>
       <c r="F22" s="5" t="str">
-        <f>TEXT(G22,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G22" s="4">
@@ -9132,7 +9281,7 @@
         <v>434</v>
       </c>
       <c r="F23" s="5" t="str">
-        <f>TEXT(G23,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G23" s="4">
@@ -9157,7 +9306,7 @@
         <v>419</v>
       </c>
       <c r="F24" s="5" t="str">
-        <f>TEXT(G24,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G24" s="4">
@@ -9182,7 +9331,7 @@
         <v>416</v>
       </c>
       <c r="F25" s="5" t="str">
-        <f>TEXT(G25,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G25" s="4">
@@ -9207,7 +9356,7 @@
         <v>414</v>
       </c>
       <c r="F26" s="5" t="str">
-        <f>TEXT(G26,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G26" s="4">
@@ -9232,7 +9381,7 @@
         <v>365</v>
       </c>
       <c r="F27" s="5" t="str">
-        <f>TEXT(G27,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G27" s="4">
@@ -9257,7 +9406,7 @@
         <v>361</v>
       </c>
       <c r="F28" s="5" t="str">
-        <f>TEXT(G28,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G28" s="4">
@@ -9282,7 +9431,7 @@
         <v>334</v>
       </c>
       <c r="F29" s="5" t="str">
-        <f>TEXT(G29,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G29" s="4">
@@ -9304,7 +9453,7 @@
         <v>319</v>
       </c>
       <c r="F30" s="5" t="str">
-        <f>TEXT(G30,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G30" s="4">
@@ -9317,7 +9466,7 @@
       </c>
       <c r="B31" s="2" t="str">
         <f>IF(ISERROR(VLOOKUP(A31,'[1]Campañas y correos'!A:A,1,FALSE)),"No encontrado","Encontrado")</f>
-        <v>No encontrado</v>
+        <v>Encontrado</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>386</v>
@@ -9329,7 +9478,7 @@
         <v>304</v>
       </c>
       <c r="F31" s="5" t="str">
-        <f>TEXT(G31,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G31" s="4">
@@ -9354,7 +9503,7 @@
         <v>302</v>
       </c>
       <c r="F32" s="5" t="str">
-        <f>TEXT(G32,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G32" s="4">
@@ -9367,7 +9516,7 @@
       </c>
       <c r="B33" s="2" t="str">
         <f>IF(ISERROR(VLOOKUP(A33,'[1]Campañas y correos'!A:A,1,FALSE)),"No encontrado","Encontrado")</f>
-        <v>No encontrado</v>
+        <v>Encontrado</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>388</v>
@@ -9379,7 +9528,7 @@
         <v>296</v>
       </c>
       <c r="F33" s="5" t="str">
-        <f>TEXT(G33,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G33" s="4">
@@ -9392,7 +9541,7 @@
       </c>
       <c r="B34" s="2" t="str">
         <f>IF(ISERROR(VLOOKUP(A34,'[1]Campañas y correos'!A:A,1,FALSE)),"No encontrado","Encontrado")</f>
-        <v>No encontrado</v>
+        <v>Encontrado</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>389</v>
@@ -9404,7 +9553,7 @@
         <v>292</v>
       </c>
       <c r="F34" s="5" t="str">
-        <f>TEXT(G34,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G34" s="4">
@@ -9417,7 +9566,7 @@
       </c>
       <c r="B35" s="2" t="str">
         <f>IF(ISERROR(VLOOKUP(A35,'[1]Campañas y correos'!A:A,1,FALSE)),"No encontrado","Encontrado")</f>
-        <v>No encontrado</v>
+        <v>Encontrado</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>390</v>
@@ -9429,7 +9578,7 @@
         <v>286</v>
       </c>
       <c r="F35" s="5" t="str">
-        <f>TEXT(G35,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G35" s="4">
@@ -9454,7 +9603,7 @@
         <v>278</v>
       </c>
       <c r="F36" s="5" t="str">
-        <f>TEXT(G36,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G36" s="4">
@@ -9467,7 +9616,7 @@
       </c>
       <c r="B37" s="2" t="str">
         <f>IF(ISERROR(VLOOKUP(A37,'[1]Campañas y correos'!A:A,1,FALSE)),"No encontrado","Encontrado")</f>
-        <v>No encontrado</v>
+        <v>Encontrado</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>392</v>
@@ -9479,7 +9628,7 @@
         <v>257</v>
       </c>
       <c r="F37" s="5" t="str">
-        <f>TEXT(G37,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G37" s="4">
@@ -9504,7 +9653,7 @@
         <v>252</v>
       </c>
       <c r="F38" s="5" t="str">
-        <f>TEXT(G38,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G38" s="4">
@@ -9529,7 +9678,7 @@
         <v>244</v>
       </c>
       <c r="F39" s="5" t="str">
-        <f>TEXT(G39,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G39" s="4">
@@ -9551,7 +9700,7 @@
         <v>183</v>
       </c>
       <c r="F40" s="5" t="str">
-        <f>TEXT(G40,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G40" s="4">
@@ -9573,7 +9722,7 @@
         <v>181</v>
       </c>
       <c r="F41" s="5" t="str">
-        <f>TEXT(G41,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G41" s="4">
@@ -9598,7 +9747,7 @@
         <v>136</v>
       </c>
       <c r="F42" s="5" t="str">
-        <f>TEXT(G42,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G42" s="4">
@@ -9620,7 +9769,7 @@
         <v>58</v>
       </c>
       <c r="F43" s="5" t="str">
-        <f>TEXT(G43,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G43" s="4">
@@ -9642,7 +9791,7 @@
         <v>57</v>
       </c>
       <c r="F44" s="5" t="str">
-        <f>TEXT(G44,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G44" s="4">
@@ -9664,7 +9813,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="str">
-        <f>TEXT(G45,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>noviembre</v>
       </c>
       <c r="G45" s="4">
@@ -9689,7 +9838,7 @@
         <v>1583</v>
       </c>
       <c r="F46" s="3" t="str">
-        <f>TEXT(G46,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>octubre</v>
       </c>
       <c r="G46" s="4">
@@ -9714,7 +9863,7 @@
         <v>1392</v>
       </c>
       <c r="F47" s="3" t="str">
-        <f>TEXT(G47,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>octubre</v>
       </c>
       <c r="G47" s="4">
@@ -9739,7 +9888,7 @@
         <v>506</v>
       </c>
       <c r="F48" s="3" t="str">
-        <f>TEXT(G48,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>octubre</v>
       </c>
       <c r="G48" s="4">
@@ -9764,7 +9913,7 @@
         <v>180</v>
       </c>
       <c r="F49" s="3" t="str">
-        <f>TEXT(G49,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>octubre</v>
       </c>
       <c r="G49" s="4">
@@ -9789,7 +9938,7 @@
         <v>595</v>
       </c>
       <c r="F50" s="3" t="str">
-        <f>TEXT(G50,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>octubre</v>
       </c>
       <c r="G50" s="4">
@@ -9814,7 +9963,7 @@
         <v>728</v>
       </c>
       <c r="F51" s="3" t="str">
-        <f>TEXT(G51,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>octubre</v>
       </c>
       <c r="G51" s="4">
@@ -9839,7 +9988,7 @@
         <v>359</v>
       </c>
       <c r="F52" s="3" t="str">
-        <f>TEXT(G52,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>octubre</v>
       </c>
       <c r="G52" s="4">
@@ -9864,7 +10013,7 @@
         <v>145</v>
       </c>
       <c r="F53" s="3" t="str">
-        <f>TEXT(G53,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>octubre</v>
       </c>
       <c r="G53" s="4">
@@ -9889,7 +10038,7 @@
         <v>99</v>
       </c>
       <c r="F54" s="3" t="str">
-        <f>TEXT(G54,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>octubre</v>
       </c>
       <c r="G54" s="4">
@@ -9914,7 +10063,7 @@
         <v>137</v>
       </c>
       <c r="F55" s="3" t="str">
-        <f>TEXT(G55,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>octubre</v>
       </c>
       <c r="G55" s="4">
@@ -9939,7 +10088,7 @@
         <v>118</v>
       </c>
       <c r="F56" s="3" t="str">
-        <f>TEXT(G56,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>octubre</v>
       </c>
       <c r="G56" s="4">
@@ -9964,7 +10113,7 @@
         <v>90</v>
       </c>
       <c r="F57" s="3" t="str">
-        <f>TEXT(G57,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>octubre</v>
       </c>
       <c r="G57" s="4">
@@ -9989,7 +10138,7 @@
         <v>2640</v>
       </c>
       <c r="F58" s="3" t="str">
-        <f>TEXT(G58,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>octubre</v>
       </c>
       <c r="G58" s="4">
@@ -10014,7 +10163,7 @@
         <v>121</v>
       </c>
       <c r="F59" s="3" t="str">
-        <f>TEXT(G59,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>octubre</v>
       </c>
       <c r="G59" s="4">
@@ -10039,7 +10188,7 @@
         <v>91</v>
       </c>
       <c r="F60" s="3" t="str">
-        <f>TEXT(G60,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>octubre</v>
       </c>
       <c r="G60" s="4">
@@ -10064,7 +10213,7 @@
         <v>5251</v>
       </c>
       <c r="F61" s="3" t="str">
-        <f>TEXT(G61,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>octubre</v>
       </c>
       <c r="G61" s="4">
@@ -10089,7 +10238,7 @@
         <v>2358</v>
       </c>
       <c r="F62" s="3" t="str">
-        <f>TEXT(G62,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>octubre</v>
       </c>
       <c r="G62" s="4">
@@ -10114,7 +10263,7 @@
         <v>848</v>
       </c>
       <c r="F63" s="3" t="str">
-        <f>TEXT(G63,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>octubre</v>
       </c>
       <c r="G63" s="4">
@@ -10139,7 +10288,7 @@
         <v>755</v>
       </c>
       <c r="F64" s="3" t="str">
-        <f>TEXT(G64,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>octubre</v>
       </c>
       <c r="G64" s="4">
@@ -10164,7 +10313,7 @@
         <v>660</v>
       </c>
       <c r="F65" s="3" t="str">
-        <f>TEXT(G65,"mmmm")</f>
+        <f t="shared" si="0"/>
         <v>octubre</v>
       </c>
       <c r="G65" s="4">
@@ -10189,7 +10338,7 @@
         <v>599</v>
       </c>
       <c r="F66" s="3" t="str">
-        <f>TEXT(G66,"mmmm")</f>
+        <f t="shared" ref="F66:F129" si="1">TEXT(G66,"mmmm")</f>
         <v>octubre</v>
       </c>
       <c r="G66" s="4">
@@ -10214,7 +10363,7 @@
         <v>568</v>
       </c>
       <c r="F67" s="3" t="str">
-        <f>TEXT(G67,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>octubre</v>
       </c>
       <c r="G67" s="4">
@@ -10239,7 +10388,7 @@
         <v>422</v>
       </c>
       <c r="F68" s="3" t="str">
-        <f>TEXT(G68,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>octubre</v>
       </c>
       <c r="G68" s="4">
@@ -10264,7 +10413,7 @@
         <v>277</v>
       </c>
       <c r="F69" s="3" t="str">
-        <f>TEXT(G69,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>octubre</v>
       </c>
       <c r="G69" s="4">
@@ -10289,7 +10438,7 @@
         <v>256</v>
       </c>
       <c r="F70" s="3" t="str">
-        <f>TEXT(G70,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>octubre</v>
       </c>
       <c r="G70" s="4">
@@ -10314,7 +10463,7 @@
         <v>248</v>
       </c>
       <c r="F71" s="3" t="str">
-        <f>TEXT(G71,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>octubre</v>
       </c>
       <c r="G71" s="4">
@@ -10327,7 +10476,7 @@
       </c>
       <c r="B72" s="2" t="str">
         <f>IF(ISERROR(VLOOKUP(A72,'[1]Campañas y correos'!A:A,1,FALSE)),"No encontrado","Encontrado")</f>
-        <v>No encontrado</v>
+        <v>Encontrado</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>56</v>
@@ -10339,7 +10488,7 @@
         <v>255</v>
       </c>
       <c r="F72" s="3" t="str">
-        <f>TEXT(G72,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>octubre</v>
       </c>
       <c r="G72" s="4">
@@ -10364,7 +10513,7 @@
         <v>229</v>
       </c>
       <c r="F73" s="3" t="str">
-        <f>TEXT(G73,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>octubre</v>
       </c>
       <c r="G73" s="4">
@@ -10389,7 +10538,7 @@
         <v>100</v>
       </c>
       <c r="F74" s="3" t="str">
-        <f>TEXT(G74,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>octubre</v>
       </c>
       <c r="G74" s="4">
@@ -10414,7 +10563,7 @@
         <v>33</v>
       </c>
       <c r="F75" s="3" t="str">
-        <f>TEXT(G75,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>octubre</v>
       </c>
       <c r="G75" s="4">
@@ -10439,7 +10588,7 @@
         <v>15</v>
       </c>
       <c r="F76" s="3" t="str">
-        <f>TEXT(G76,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>octubre</v>
       </c>
       <c r="G76" s="4">
@@ -10464,7 +10613,7 @@
         <v>2988</v>
       </c>
       <c r="F77" s="5" t="str">
-        <f>TEXT(G77,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G77" s="4">
@@ -10489,7 +10638,7 @@
         <v>2847</v>
       </c>
       <c r="F78" s="5" t="str">
-        <f>TEXT(G78,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G78" s="4">
@@ -10514,7 +10663,7 @@
         <v>1642</v>
       </c>
       <c r="F79" s="5" t="str">
-        <f>TEXT(G79,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G79" s="4">
@@ -10539,7 +10688,7 @@
         <v>1527</v>
       </c>
       <c r="F80" s="5" t="str">
-        <f>TEXT(G80,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G80" s="4">
@@ -10564,7 +10713,7 @@
         <v>1138</v>
       </c>
       <c r="F81" s="5" t="str">
-        <f>TEXT(G81,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G81" s="4">
@@ -10589,7 +10738,7 @@
         <v>704</v>
       </c>
       <c r="F82" s="5" t="str">
-        <f>TEXT(G82,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G82" s="4">
@@ -10614,7 +10763,7 @@
         <v>697</v>
       </c>
       <c r="F83" s="5" t="str">
-        <f>TEXT(G83,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G83" s="4">
@@ -10639,7 +10788,7 @@
         <v>654</v>
       </c>
       <c r="F84" s="5" t="str">
-        <f>TEXT(G84,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G84" s="4">
@@ -10664,7 +10813,7 @@
         <v>644</v>
       </c>
       <c r="F85" s="5" t="str">
-        <f>TEXT(G85,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G85" s="4">
@@ -10689,7 +10838,7 @@
         <v>591</v>
       </c>
       <c r="F86" s="5" t="str">
-        <f>TEXT(G86,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G86" s="4">
@@ -10714,7 +10863,7 @@
         <v>568</v>
       </c>
       <c r="F87" s="5" t="str">
-        <f>TEXT(G87,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G87" s="4">
@@ -10739,7 +10888,7 @@
         <v>401</v>
       </c>
       <c r="F88" s="5" t="str">
-        <f>TEXT(G88,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G88" s="4">
@@ -10764,7 +10913,7 @@
         <v>387</v>
       </c>
       <c r="F89" s="5" t="str">
-        <f>TEXT(G89,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G89" s="4">
@@ -10789,7 +10938,7 @@
         <v>379</v>
       </c>
       <c r="F90" s="5" t="str">
-        <f>TEXT(G90,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G90" s="4">
@@ -10814,7 +10963,7 @@
         <v>367</v>
       </c>
       <c r="F91" s="5" t="str">
-        <f>TEXT(G91,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G91" s="4">
@@ -10827,7 +10976,7 @@
       </c>
       <c r="B92" s="2" t="str">
         <f>IF(ISERROR(VLOOKUP(A92,'[1]Campañas y correos'!A:A,1,FALSE)),"No encontrado","Encontrado")</f>
-        <v>No encontrado</v>
+        <v>Encontrado</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>90</v>
@@ -10839,7 +10988,7 @@
         <v>330</v>
       </c>
       <c r="F92" s="5" t="str">
-        <f>TEXT(G92,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G92" s="4">
@@ -10864,7 +11013,7 @@
         <v>329</v>
       </c>
       <c r="F93" s="5" t="str">
-        <f>TEXT(G93,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G93" s="4">
@@ -10889,7 +11038,7 @@
         <v>279</v>
       </c>
       <c r="F94" s="5" t="str">
-        <f>TEXT(G94,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G94" s="4">
@@ -10914,7 +11063,7 @@
         <v>265</v>
       </c>
       <c r="F95" s="5" t="str">
-        <f>TEXT(G95,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G95" s="4">
@@ -10939,7 +11088,7 @@
         <v>243</v>
       </c>
       <c r="F96" s="5" t="str">
-        <f>TEXT(G96,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G96" s="4">
@@ -10964,7 +11113,7 @@
         <v>169</v>
       </c>
       <c r="F97" s="5" t="str">
-        <f>TEXT(G97,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G97" s="4">
@@ -10989,7 +11138,7 @@
         <v>169</v>
       </c>
       <c r="F98" s="5" t="str">
-        <f>TEXT(G98,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G98" s="4">
@@ -11014,7 +11163,7 @@
         <v>153</v>
       </c>
       <c r="F99" s="5" t="str">
-        <f>TEXT(G99,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G99" s="4">
@@ -11039,7 +11188,7 @@
         <v>134</v>
       </c>
       <c r="F100" s="5" t="str">
-        <f>TEXT(G100,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G100" s="4">
@@ -11064,7 +11213,7 @@
         <v>133</v>
       </c>
       <c r="F101" s="5" t="str">
-        <f>TEXT(G101,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G101" s="4">
@@ -11089,7 +11238,7 @@
         <v>126</v>
       </c>
       <c r="F102" s="5" t="str">
-        <f>TEXT(G102,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G102" s="4">
@@ -11114,7 +11263,7 @@
         <v>54</v>
       </c>
       <c r="F103" s="5" t="str">
-        <f>TEXT(G103,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>septiembre</v>
       </c>
       <c r="G103" s="4">
@@ -11139,7 +11288,7 @@
         <v>3587</v>
       </c>
       <c r="F104" s="5" t="str">
-        <f>TEXT(G104,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G104" s="4">
@@ -11164,7 +11313,7 @@
         <v>2065</v>
       </c>
       <c r="F105" s="5" t="str">
-        <f>TEXT(G105,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G105" s="4">
@@ -11189,7 +11338,7 @@
         <v>1961</v>
       </c>
       <c r="F106" s="5" t="str">
-        <f>TEXT(G106,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G106" s="4">
@@ -11214,7 +11363,7 @@
         <v>1522</v>
       </c>
       <c r="F107" s="5" t="str">
-        <f>TEXT(G107,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G107" s="4">
@@ -11239,7 +11388,7 @@
         <v>1183</v>
       </c>
       <c r="F108" s="5" t="str">
-        <f>TEXT(G108,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G108" s="4">
@@ -11264,7 +11413,7 @@
         <v>1147</v>
       </c>
       <c r="F109" s="5" t="str">
-        <f>TEXT(G109,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G109" s="4">
@@ -11289,7 +11438,7 @@
         <v>887</v>
       </c>
       <c r="F110" s="5" t="str">
-        <f>TEXT(G110,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G110" s="4">
@@ -11314,7 +11463,7 @@
         <v>718</v>
       </c>
       <c r="F111" s="5" t="str">
-        <f>TEXT(G111,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G111" s="4">
@@ -11339,7 +11488,7 @@
         <v>570</v>
       </c>
       <c r="F112" s="5" t="str">
-        <f>TEXT(G112,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G112" s="4">
@@ -11364,7 +11513,7 @@
         <v>436</v>
       </c>
       <c r="F113" s="5" t="str">
-        <f>TEXT(G113,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G113" s="4">
@@ -11389,7 +11538,7 @@
         <v>411</v>
       </c>
       <c r="F114" s="5" t="str">
-        <f>TEXT(G114,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G114" s="4">
@@ -11414,7 +11563,7 @@
         <v>420</v>
       </c>
       <c r="F115" s="5" t="str">
-        <f>TEXT(G115,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G115" s="4">
@@ -11439,7 +11588,7 @@
         <v>377</v>
       </c>
       <c r="F116" s="5" t="str">
-        <f>TEXT(G116,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G116" s="4">
@@ -11464,7 +11613,7 @@
         <v>361</v>
       </c>
       <c r="F117" s="5" t="str">
-        <f>TEXT(G117,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G117" s="4">
@@ -11489,7 +11638,7 @@
         <v>335</v>
       </c>
       <c r="F118" s="5" t="str">
-        <f>TEXT(G118,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G118" s="4">
@@ -11514,7 +11663,7 @@
         <v>301</v>
       </c>
       <c r="F119" s="5" t="str">
-        <f>TEXT(G119,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G119" s="4">
@@ -11539,7 +11688,7 @@
         <v>290</v>
       </c>
       <c r="F120" s="5" t="str">
-        <f>TEXT(G120,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G120" s="4">
@@ -11564,7 +11713,7 @@
         <v>296</v>
       </c>
       <c r="F121" s="5" t="str">
-        <f>TEXT(G121,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G121" s="4">
@@ -11589,7 +11738,7 @@
         <v>259</v>
       </c>
       <c r="F122" s="5" t="str">
-        <f>TEXT(G122,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G122" s="4">
@@ -11614,7 +11763,7 @@
         <v>254</v>
       </c>
       <c r="F123" s="5" t="str">
-        <f>TEXT(G123,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G123" s="4">
@@ -11639,7 +11788,7 @@
         <v>218</v>
       </c>
       <c r="F124" s="5" t="str">
-        <f>TEXT(G124,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G124" s="4">
@@ -11664,7 +11813,7 @@
         <v>222</v>
       </c>
       <c r="F125" s="5" t="str">
-        <f>TEXT(G125,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G125" s="4">
@@ -11689,7 +11838,7 @@
         <v>183</v>
       </c>
       <c r="F126" s="5" t="str">
-        <f>TEXT(G126,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G126" s="4">
@@ -11714,7 +11863,7 @@
         <v>191</v>
       </c>
       <c r="F127" s="5" t="str">
-        <f>TEXT(G127,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G127" s="4">
@@ -11739,7 +11888,7 @@
         <v>36</v>
       </c>
       <c r="F128" s="5" t="str">
-        <f>TEXT(G128,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G128" s="4">
@@ -11764,7 +11913,7 @@
         <v>18</v>
       </c>
       <c r="F129" s="5" t="str">
-        <f>TEXT(G129,"mmmm")</f>
+        <f t="shared" si="1"/>
         <v>agosto</v>
       </c>
       <c r="G129" s="4">
@@ -11789,7 +11938,7 @@
         <v>16</v>
       </c>
       <c r="F130" s="5" t="str">
-        <f>TEXT(G130,"mmmm")</f>
+        <f t="shared" ref="F130:F193" si="2">TEXT(G130,"mmmm")</f>
         <v>agosto</v>
       </c>
       <c r="G130" s="4">
@@ -11811,7 +11960,7 @@
         <v>1009</v>
       </c>
       <c r="F131" s="5" t="str">
-        <f>TEXT(G131,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>julio</v>
       </c>
       <c r="G131" s="4">
@@ -11836,7 +11985,7 @@
         <v>986</v>
       </c>
       <c r="F132" s="5" t="str">
-        <f>TEXT(G132,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>julio</v>
       </c>
       <c r="G132" s="4">
@@ -11861,7 +12010,7 @@
         <v>844</v>
       </c>
       <c r="F133" s="5" t="str">
-        <f>TEXT(G133,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>julio</v>
       </c>
       <c r="G133" s="4">
@@ -11886,7 +12035,7 @@
         <v>722</v>
       </c>
       <c r="F134" s="5" t="str">
-        <f>TEXT(G134,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>julio</v>
       </c>
       <c r="G134" s="4">
@@ -11911,7 +12060,7 @@
         <v>715</v>
       </c>
       <c r="F135" s="5" t="str">
-        <f>TEXT(G135,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>julio</v>
       </c>
       <c r="G135" s="4">
@@ -11936,7 +12085,7 @@
         <v>710</v>
       </c>
       <c r="F136" s="5" t="str">
-        <f>TEXT(G136,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>julio</v>
       </c>
       <c r="G136" s="4">
@@ -11961,7 +12110,7 @@
         <v>593</v>
       </c>
       <c r="F137" s="5" t="str">
-        <f>TEXT(G137,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>julio</v>
       </c>
       <c r="G137" s="4">
@@ -11986,7 +12135,7 @@
         <v>511</v>
       </c>
       <c r="F138" s="5" t="str">
-        <f>TEXT(G138,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>julio</v>
       </c>
       <c r="G138" s="4">
@@ -12011,7 +12160,7 @@
         <v>493</v>
       </c>
       <c r="F139" s="5" t="str">
-        <f>TEXT(G139,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>julio</v>
       </c>
       <c r="G139" s="4">
@@ -12036,7 +12185,7 @@
         <v>499</v>
       </c>
       <c r="F140" s="5" t="str">
-        <f>TEXT(G140,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>julio</v>
       </c>
       <c r="G140" s="4">
@@ -12061,7 +12210,7 @@
         <v>417</v>
       </c>
       <c r="F141" s="5" t="str">
-        <f>TEXT(G141,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>julio</v>
       </c>
       <c r="G141" s="4">
@@ -12086,7 +12235,7 @@
         <v>418</v>
       </c>
       <c r="F142" s="5" t="str">
-        <f>TEXT(G142,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>julio</v>
       </c>
       <c r="G142" s="4">
@@ -12108,7 +12257,7 @@
         <v>353</v>
       </c>
       <c r="F143" s="5" t="str">
-        <f>TEXT(G143,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>julio</v>
       </c>
       <c r="G143" s="4">
@@ -12133,7 +12282,7 @@
         <v>366</v>
       </c>
       <c r="F144" s="5" t="str">
-        <f>TEXT(G144,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>julio</v>
       </c>
       <c r="G144" s="4">
@@ -12158,7 +12307,7 @@
         <v>234</v>
       </c>
       <c r="F145" s="5" t="str">
-        <f>TEXT(G145,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>julio</v>
       </c>
       <c r="G145" s="4">
@@ -12183,7 +12332,7 @@
         <v>1898</v>
       </c>
       <c r="F146" s="5" t="str">
-        <f>TEXT(G146,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>junio</v>
       </c>
       <c r="G146" s="4">
@@ -12208,7 +12357,7 @@
         <v>1202</v>
       </c>
       <c r="F147" s="5" t="str">
-        <f>TEXT(G147,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>junio</v>
       </c>
       <c r="G147" s="4">
@@ -12233,7 +12382,7 @@
         <v>1095</v>
       </c>
       <c r="F148" s="5" t="str">
-        <f>TEXT(G148,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>junio</v>
       </c>
       <c r="G148" s="4">
@@ -12258,7 +12407,7 @@
         <v>1025</v>
       </c>
       <c r="F149" s="5" t="str">
-        <f>TEXT(G149,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>junio</v>
       </c>
       <c r="G149" s="4">
@@ -12283,7 +12432,7 @@
         <v>1009</v>
       </c>
       <c r="F150" s="5" t="str">
-        <f>TEXT(G150,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>junio</v>
       </c>
       <c r="G150" s="4">
@@ -12308,7 +12457,7 @@
         <v>962</v>
       </c>
       <c r="F151" s="5" t="str">
-        <f>TEXT(G151,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>junio</v>
       </c>
       <c r="G151" s="4">
@@ -12330,7 +12479,7 @@
         <v>903</v>
       </c>
       <c r="F152" s="5" t="str">
-        <f>TEXT(G152,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>junio</v>
       </c>
       <c r="G152" s="4">
@@ -12352,7 +12501,7 @@
         <v>739</v>
       </c>
       <c r="F153" s="5" t="str">
-        <f>TEXT(G153,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>junio</v>
       </c>
       <c r="G153" s="4">
@@ -12374,7 +12523,7 @@
         <v>700</v>
       </c>
       <c r="F154" s="5" t="str">
-        <f>TEXT(G154,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>junio</v>
       </c>
       <c r="G154" s="4">
@@ -12399,7 +12548,7 @@
         <v>700</v>
       </c>
       <c r="F155" s="5" t="str">
-        <f>TEXT(G155,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>junio</v>
       </c>
       <c r="G155" s="4">
@@ -12421,7 +12570,7 @@
         <v>668</v>
       </c>
       <c r="F156" s="5" t="str">
-        <f>TEXT(G156,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>junio</v>
       </c>
       <c r="G156" s="4">
@@ -12446,7 +12595,7 @@
         <v>579</v>
       </c>
       <c r="F157" s="5" t="str">
-        <f>TEXT(G157,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>junio</v>
       </c>
       <c r="G157" s="4">
@@ -12471,7 +12620,7 @@
         <v>572</v>
       </c>
       <c r="F158" s="5" t="str">
-        <f>TEXT(G158,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>junio</v>
       </c>
       <c r="G158" s="4">
@@ -12496,7 +12645,7 @@
         <v>531</v>
       </c>
       <c r="F159" s="5" t="str">
-        <f>TEXT(G159,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>junio</v>
       </c>
       <c r="G159" s="4">
@@ -12518,7 +12667,7 @@
         <v>517</v>
       </c>
       <c r="F160" s="5" t="str">
-        <f>TEXT(G160,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>junio</v>
       </c>
       <c r="G160" s="4">
@@ -12543,7 +12692,7 @@
         <v>500</v>
       </c>
       <c r="F161" s="5" t="str">
-        <f>TEXT(G161,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>junio</v>
       </c>
       <c r="G161" s="4">
@@ -12568,7 +12717,7 @@
         <v>464</v>
       </c>
       <c r="F162" s="5" t="str">
-        <f>TEXT(G162,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>junio</v>
       </c>
       <c r="G162" s="4">
@@ -12593,7 +12742,7 @@
         <v>310</v>
       </c>
       <c r="F163" s="5" t="str">
-        <f>TEXT(G163,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>junio</v>
       </c>
       <c r="G163" s="4">
@@ -12618,7 +12767,7 @@
         <v>283</v>
       </c>
       <c r="F164" s="5" t="str">
-        <f>TEXT(G164,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>junio</v>
       </c>
       <c r="G164" s="4">
@@ -12643,7 +12792,7 @@
         <v>245</v>
       </c>
       <c r="F165" s="5" t="str">
-        <f>TEXT(G165,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>junio</v>
       </c>
       <c r="G165" s="4">
@@ -12668,7 +12817,7 @@
         <v>190</v>
       </c>
       <c r="F166" s="5" t="str">
-        <f>TEXT(G166,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>junio</v>
       </c>
       <c r="G166" s="4">
@@ -12693,7 +12842,7 @@
         <v>56</v>
       </c>
       <c r="F167" s="5" t="str">
-        <f>TEXT(G167,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>junio</v>
       </c>
       <c r="G167" s="4">
@@ -12718,7 +12867,7 @@
         <v>39</v>
       </c>
       <c r="F168" s="5" t="str">
-        <f>TEXT(G168,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>junio</v>
       </c>
       <c r="G168" s="4">
@@ -12743,7 +12892,7 @@
         <v>3209</v>
       </c>
       <c r="F169" s="5" t="str">
-        <f>TEXT(G169,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>mayo</v>
       </c>
       <c r="G169" s="4">
@@ -12768,7 +12917,7 @@
         <v>1663</v>
       </c>
       <c r="F170" s="5" t="str">
-        <f>TEXT(G170,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>mayo</v>
       </c>
       <c r="G170" s="4">
@@ -12793,7 +12942,7 @@
         <v>1415</v>
       </c>
       <c r="F171" s="5" t="str">
-        <f>TEXT(G171,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>mayo</v>
       </c>
       <c r="G171" s="4">
@@ -12818,7 +12967,7 @@
         <v>1190</v>
       </c>
       <c r="F172" s="5" t="str">
-        <f>TEXT(G172,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>mayo</v>
       </c>
       <c r="G172" s="4">
@@ -12843,7 +12992,7 @@
         <v>1084</v>
       </c>
       <c r="F173" s="5" t="str">
-        <f>TEXT(G173,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>mayo</v>
       </c>
       <c r="G173" s="4">
@@ -12868,7 +13017,7 @@
         <v>827</v>
       </c>
       <c r="F174" s="5" t="str">
-        <f>TEXT(G174,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>mayo</v>
       </c>
       <c r="G174" s="4">
@@ -12893,7 +13042,7 @@
         <v>716</v>
       </c>
       <c r="F175" s="5" t="str">
-        <f>TEXT(G175,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>mayo</v>
       </c>
       <c r="G175" s="4">
@@ -12918,7 +13067,7 @@
         <v>654</v>
       </c>
       <c r="F176" s="5" t="str">
-        <f>TEXT(G176,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>mayo</v>
       </c>
       <c r="G176" s="4">
@@ -12943,7 +13092,7 @@
         <v>649</v>
       </c>
       <c r="F177" s="5" t="str">
-        <f>TEXT(G177,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>mayo</v>
       </c>
       <c r="G177" s="4">
@@ -12968,7 +13117,7 @@
         <v>589</v>
       </c>
       <c r="F178" s="5" t="str">
-        <f>TEXT(G178,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>mayo</v>
       </c>
       <c r="G178" s="4">
@@ -12993,7 +13142,7 @@
         <v>546</v>
       </c>
       <c r="F179" s="5" t="str">
-        <f>TEXT(G179,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>mayo</v>
       </c>
       <c r="G179" s="4">
@@ -13018,7 +13167,7 @@
         <v>473</v>
       </c>
       <c r="F180" s="5" t="str">
-        <f>TEXT(G180,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>mayo</v>
       </c>
       <c r="G180" s="4">
@@ -13043,7 +13192,7 @@
         <v>431</v>
       </c>
       <c r="F181" s="5" t="str">
-        <f>TEXT(G181,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>mayo</v>
       </c>
       <c r="G181" s="4">
@@ -13068,7 +13217,7 @@
         <v>394</v>
       </c>
       <c r="F182" s="5" t="str">
-        <f>TEXT(G182,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>mayo</v>
       </c>
       <c r="G182" s="4">
@@ -13093,7 +13242,7 @@
         <v>306</v>
       </c>
       <c r="F183" s="5" t="str">
-        <f>TEXT(G183,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>mayo</v>
       </c>
       <c r="G183" s="4">
@@ -13118,7 +13267,7 @@
         <v>173</v>
       </c>
       <c r="F184" s="5" t="str">
-        <f>TEXT(G184,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>mayo</v>
       </c>
       <c r="G184" s="4">
@@ -13143,7 +13292,7 @@
         <v>156</v>
       </c>
       <c r="F185" s="5" t="str">
-        <f>TEXT(G185,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>mayo</v>
       </c>
       <c r="G185" s="4">
@@ -13168,7 +13317,7 @@
         <v>119</v>
       </c>
       <c r="F186" s="5" t="str">
-        <f>TEXT(G186,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>mayo</v>
       </c>
       <c r="G186" s="4">
@@ -13193,7 +13342,7 @@
         <v>114</v>
       </c>
       <c r="F187" s="5" t="str">
-        <f>TEXT(G187,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>mayo</v>
       </c>
       <c r="G187" s="4">
@@ -13218,7 +13367,7 @@
         <v>105</v>
       </c>
       <c r="F188" s="5" t="str">
-        <f>TEXT(G188,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>mayo</v>
       </c>
       <c r="G188" s="4">
@@ -13243,7 +13392,7 @@
         <v>93</v>
       </c>
       <c r="F189" s="5" t="str">
-        <f>TEXT(G189,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>mayo</v>
       </c>
       <c r="G189" s="4">
@@ -13268,7 +13417,7 @@
         <v>72</v>
       </c>
       <c r="F190" s="5" t="str">
-        <f>TEXT(G190,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>mayo</v>
       </c>
       <c r="G190" s="4">
@@ -13293,7 +13442,7 @@
         <v>10</v>
       </c>
       <c r="F191" s="5" t="str">
-        <f>TEXT(G191,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>mayo</v>
       </c>
       <c r="G191" s="4">
@@ -13318,7 +13467,7 @@
         <v>3765</v>
       </c>
       <c r="F192" s="5" t="str">
-        <f>TEXT(G192,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>abril</v>
       </c>
       <c r="G192" s="4">
@@ -13343,7 +13492,7 @@
         <v>2398</v>
       </c>
       <c r="F193" s="5" t="str">
-        <f>TEXT(G193,"mmmm")</f>
+        <f t="shared" si="2"/>
         <v>abril</v>
       </c>
       <c r="G193" s="4">
@@ -13368,7 +13517,7 @@
         <v>1321</v>
       </c>
       <c r="F194" s="5" t="str">
-        <f>TEXT(G194,"mmmm")</f>
+        <f t="shared" ref="F194:F227" si="3">TEXT(G194,"mmmm")</f>
         <v>abril</v>
       </c>
       <c r="G194" s="4">
@@ -13393,7 +13542,7 @@
         <v>1000</v>
       </c>
       <c r="F195" s="5" t="str">
-        <f>TEXT(G195,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>abril</v>
       </c>
       <c r="G195" s="4">
@@ -13418,7 +13567,7 @@
         <v>977</v>
       </c>
       <c r="F196" s="5" t="str">
-        <f>TEXT(G196,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>abril</v>
       </c>
       <c r="G196" s="4">
@@ -13443,7 +13592,7 @@
         <v>724</v>
       </c>
       <c r="F197" s="5" t="str">
-        <f>TEXT(G197,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>abril</v>
       </c>
       <c r="G197" s="4">
@@ -13468,7 +13617,7 @@
         <v>717</v>
       </c>
       <c r="F198" s="5" t="str">
-        <f>TEXT(G198,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>abril</v>
       </c>
       <c r="G198" s="4">
@@ -13493,7 +13642,7 @@
         <v>691</v>
       </c>
       <c r="F199" s="5" t="str">
-        <f>TEXT(G199,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>abril</v>
       </c>
       <c r="G199" s="4">
@@ -13518,7 +13667,7 @@
         <v>506</v>
       </c>
       <c r="F200" s="5" t="str">
-        <f>TEXT(G200,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>abril</v>
       </c>
       <c r="G200" s="4">
@@ -13543,7 +13692,7 @@
         <v>486</v>
       </c>
       <c r="F201" s="5" t="str">
-        <f>TEXT(G201,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>abril</v>
       </c>
       <c r="G201" s="4">
@@ -13568,7 +13717,7 @@
         <v>477</v>
       </c>
       <c r="F202" s="5" t="str">
-        <f>TEXT(G202,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>abril</v>
       </c>
       <c r="G202" s="4">
@@ -13593,7 +13742,7 @@
         <v>383</v>
       </c>
       <c r="F203" s="5" t="str">
-        <f>TEXT(G203,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>abril</v>
       </c>
       <c r="G203" s="4">
@@ -13618,7 +13767,7 @@
         <v>330</v>
       </c>
       <c r="F204" s="5" t="str">
-        <f>TEXT(G204,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>abril</v>
       </c>
       <c r="G204" s="4">
@@ -13643,7 +13792,7 @@
         <v>307</v>
       </c>
       <c r="F205" s="5" t="str">
-        <f>TEXT(G205,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>abril</v>
       </c>
       <c r="G205" s="4">
@@ -13668,7 +13817,7 @@
         <v>264</v>
       </c>
       <c r="F206" s="5" t="str">
-        <f>TEXT(G206,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>abril</v>
       </c>
       <c r="G206" s="4">
@@ -13693,7 +13842,7 @@
         <v>163</v>
       </c>
       <c r="F207" s="5" t="str">
-        <f>TEXT(G207,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>abril</v>
       </c>
       <c r="G207" s="4">
@@ -13718,7 +13867,7 @@
         <v>157</v>
       </c>
       <c r="F208" s="5" t="str">
-        <f>TEXT(G208,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>abril</v>
       </c>
       <c r="G208" s="4">
@@ -13743,7 +13892,7 @@
         <v>126</v>
       </c>
       <c r="F209" s="5" t="str">
-        <f>TEXT(G209,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>abril</v>
       </c>
       <c r="G209" s="4">
@@ -13768,7 +13917,7 @@
         <v>114</v>
       </c>
       <c r="F210" s="5" t="str">
-        <f>TEXT(G210,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>abril</v>
       </c>
       <c r="G210" s="4">
@@ -13793,7 +13942,7 @@
         <v>96</v>
       </c>
       <c r="F211" s="5" t="str">
-        <f>TEXT(G211,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>abril</v>
       </c>
       <c r="G211" s="4">
@@ -13818,7 +13967,7 @@
         <v>32</v>
       </c>
       <c r="F212" s="5" t="str">
-        <f>TEXT(G212,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>abril</v>
       </c>
       <c r="G212" s="4">
@@ -13843,7 +13992,7 @@
         <v>19</v>
       </c>
       <c r="F213" s="5" t="str">
-        <f>TEXT(G213,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>abril</v>
       </c>
       <c r="G213" s="4">
@@ -13868,7 +14017,7 @@
         <v>1</v>
       </c>
       <c r="F214" s="5" t="str">
-        <f>TEXT(G214,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>abril</v>
       </c>
       <c r="G214" s="4">
@@ -13893,7 +14042,7 @@
         <v>12414</v>
       </c>
       <c r="F215" s="5" t="str">
-        <f>TEXT(G215,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>marzo</v>
       </c>
       <c r="G215" s="4">
@@ -13918,7 +14067,7 @@
         <v>1669</v>
       </c>
       <c r="F216" s="5" t="str">
-        <f>TEXT(G216,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>marzo</v>
       </c>
       <c r="G216" s="4">
@@ -13943,7 +14092,7 @@
         <v>984</v>
       </c>
       <c r="F217" s="5" t="str">
-        <f>TEXT(G217,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>marzo</v>
       </c>
       <c r="G217" s="4">
@@ -13956,7 +14105,7 @@
       </c>
       <c r="B218" s="2" t="str">
         <f>IF(ISERROR(VLOOKUP(A218,'[1]Campañas y correos'!A:A,1,FALSE)),"No encontrado","Encontrado")</f>
-        <v>No encontrado</v>
+        <v>Encontrado</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>205</v>
@@ -13968,7 +14117,7 @@
         <v>846</v>
       </c>
       <c r="F218" s="5" t="str">
-        <f>TEXT(G218,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>marzo</v>
       </c>
       <c r="G218" s="4">
@@ -13993,7 +14142,7 @@
         <v>836</v>
       </c>
       <c r="F219" s="5" t="str">
-        <f>TEXT(G219,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>marzo</v>
       </c>
       <c r="G219" s="4">
@@ -14018,7 +14167,7 @@
         <v>714</v>
       </c>
       <c r="F220" s="5" t="str">
-        <f>TEXT(G220,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>marzo</v>
       </c>
       <c r="G220" s="4">
@@ -14043,7 +14192,7 @@
         <v>648</v>
       </c>
       <c r="F221" s="5" t="str">
-        <f>TEXT(G221,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>marzo</v>
       </c>
       <c r="G221" s="4">
@@ -14068,7 +14217,7 @@
         <v>542</v>
       </c>
       <c r="F222" s="5" t="str">
-        <f>TEXT(G222,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>marzo</v>
       </c>
       <c r="G222" s="4">
@@ -14093,7 +14242,7 @@
         <v>530</v>
       </c>
       <c r="F223" s="5" t="str">
-        <f>TEXT(G223,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>marzo</v>
       </c>
       <c r="G223" s="4">
@@ -14118,7 +14267,7 @@
         <v>433</v>
       </c>
       <c r="F224" s="5" t="str">
-        <f>TEXT(G224,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>marzo</v>
       </c>
       <c r="G224" s="4">
@@ -14143,7 +14292,7 @@
         <v>410</v>
       </c>
       <c r="F225" s="5" t="str">
-        <f>TEXT(G225,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>marzo</v>
       </c>
       <c r="G225" s="4">
@@ -14168,7 +14317,7 @@
         <v>327</v>
       </c>
       <c r="F226" s="5" t="str">
-        <f>TEXT(G226,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>marzo</v>
       </c>
       <c r="G226" s="4">
@@ -14193,7 +14342,7 @@
         <v>148</v>
       </c>
       <c r="F227" s="5" t="str">
-        <f>TEXT(G227,"mmmm")</f>
+        <f t="shared" si="3"/>
         <v>marzo</v>
       </c>
       <c r="G227" s="4">
@@ -14202,22 +14351,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:G227">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>$B2="No encontrado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>#REF!="No encontrado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>#REF!="No encontrado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A214">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>$B214="No encontrado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14234,16 +14383,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52B4883-36B2-4258-9D03-697BCA7334C3}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -14275,7 +14427,9 @@
       <c r="A2" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="12" t="s">
+        <v>432</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>354</v>
       </c>
@@ -14287,7 +14441,9 @@
       <c r="A3" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>433</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>360</v>
       </c>
@@ -14296,7 +14452,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="5"/>
+      <c r="A4" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>434</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>364</v>
       </c>
@@ -14305,7 +14466,12 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="5"/>
+      <c r="A5" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>267</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>371</v>
       </c>
@@ -14317,7 +14483,9 @@
       <c r="A6" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>436</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>376</v>
       </c>
@@ -14326,7 +14494,12 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="5"/>
+      <c r="A7" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>437</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>384</v>
       </c>
@@ -14335,7 +14508,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="5"/>
+      <c r="A8" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>433</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>395</v>
       </c>
@@ -14344,7 +14522,12 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="5"/>
+      <c r="A9" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>312</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>396</v>
       </c>
@@ -14353,7 +14536,12 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="5"/>
+      <c r="A10" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>437</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>399</v>
       </c>
@@ -14362,7 +14550,12 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="5"/>
+      <c r="A11" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>433</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>400</v>
       </c>
@@ -14371,7 +14564,12 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="5"/>
+      <c r="A12" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>434</v>
+      </c>
       <c r="F12" s="2" t="s">
         <v>401</v>
       </c>
@@ -14383,7 +14581,9 @@
       <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="F13" s="2" t="s">
         <v>56</v>
       </c>
@@ -14395,7 +14595,9 @@
       <c r="A14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>442</v>
+      </c>
       <c r="F14" s="2" t="s">
         <v>90</v>
       </c>
@@ -14404,7 +14606,12 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="5"/>
+      <c r="A15" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>443</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>404</v>
       </c>
@@ -14413,7 +14620,12 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="5"/>
+      <c r="A16" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>267</v>
+      </c>
       <c r="F16" s="2" t="s">
         <v>408</v>
       </c>
@@ -14421,8 +14633,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="5"/>
+    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>443</v>
+      </c>
       <c r="F17" s="19" t="s">
         <v>416</v>
       </c>
@@ -14430,17 +14647,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="5"/>
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>445</v>
+      </c>
       <c r="F18" s="19" t="s">
         <v>417</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="5"/>
+      <c r="H18" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>437</v>
+      </c>
       <c r="F19" s="19" t="s">
         <v>418</v>
       </c>
@@ -14448,8 +14678,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="5"/>
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>445</v>
+      </c>
       <c r="F20" s="19" t="s">
         <v>419</v>
       </c>
@@ -14457,8 +14692,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="E21" s="5"/>
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>448</v>
+      </c>
       <c r="F21" s="19" t="s">
         <v>422</v>
       </c>
@@ -14466,11 +14706,13 @@
         <v>423</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>445</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>205</v>
       </c>
@@ -14478,7 +14720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -14487,7 +14729,7 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -14496,7 +14738,7 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -14505,7 +14747,7 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -14514,7 +14756,7 @@
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -14523,7 +14765,7 @@
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -14532,7 +14774,7 @@
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -14541,7 +14783,7 @@
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -14550,7 +14792,7 @@
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -14559,7 +14801,7 @@
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -14569,7 +14811,7 @@
       <c r="G32"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A23:G23 A2:B22 E2:G22">
+  <conditionalFormatting sqref="A23:G23 E2:G22 A2:B22">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B2="No encontrado"</formula>
     </cfRule>
